--- a/docss/trend/finland/E_neuron.xlsx
+++ b/docss/trend/finland/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,7 +1578,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+      <selection activeCell="F2" sqref="F2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,14 +1602,14 @@
       <c r="A2" s="5">
         <v>2002</v>
       </c>
-      <c r="B2" s="6">
-        <v>2.3382883854210377</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.5628815926611423</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2.1344089843332767</v>
+      <c r="B2" s="5">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.1339999999999999</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1620,14 +1617,14 @@
       <c r="A3" s="5">
         <v>2003</v>
       </c>
-      <c r="B3" s="6">
-        <v>2.5684474054723978</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.7816614285111427</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.4803182799369097</v>
+      <c r="B3" s="5">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.782</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.48</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1635,14 +1632,14 @@
       <c r="A4" s="5">
         <v>2004</v>
       </c>
-      <c r="B4" s="6">
-        <v>2.076296828687191</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.8351340740919113</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.2234361805021763</v>
+      <c r="B4">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.835</v>
+      </c>
+      <c r="D4">
+        <v>2.2229999999999999</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1650,14 +1647,14 @@
       <c r="A5" s="5">
         <v>2005</v>
       </c>
-      <c r="B5" s="6">
-        <v>2.7368006594479084</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.1495244987308979</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.4159415140748024</v>
+      <c r="B5">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.15</v>
+      </c>
+      <c r="D5">
+        <v>2.4159999999999999</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1665,14 +1662,14 @@
       <c r="A6" s="5">
         <v>2006</v>
       </c>
-      <c r="B6" s="6">
-        <v>2.4140549432486296</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.7639499977231026</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.1510545909404755</v>
+      <c r="B6">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="D6">
+        <v>2.1509999999999998</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1680,14 +1677,14 @@
       <c r="A7" s="5">
         <v>2007</v>
       </c>
-      <c r="B7" s="6">
-        <v>2.4229265227913857</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.5038110539317131</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.3806881718337536</v>
+      <c r="B7">
+        <v>2.423</v>
+      </c>
+      <c r="C7">
+        <v>2.504</v>
+      </c>
+      <c r="D7">
+        <v>2.3809999999999998</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1695,14 +1692,14 @@
       <c r="A8" s="5">
         <v>2008</v>
       </c>
-      <c r="B8" s="6">
-        <v>2.4934164583683014</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.745587345212698</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.2703161314129829</v>
+      <c r="B8">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.746</v>
+      </c>
+      <c r="D8">
+        <v>2.27</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1710,14 +1707,14 @@
       <c r="A9" s="5">
         <v>2009</v>
       </c>
-      <c r="B9" s="6">
-        <v>2.1529514975845814</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.205067340284586</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2.1419476605951786</v>
+      <c r="B9">
+        <v>2.153</v>
+      </c>
+      <c r="C9">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="D9">
+        <v>2.1419999999999999</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1725,14 +1722,14 @@
       <c r="A10" s="5">
         <v>2010</v>
       </c>
-      <c r="B10" s="6">
-        <v>2.2040929831564426</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.3385583125054836</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2.1122618801891804</v>
+      <c r="B10">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="C10">
+        <v>2.339</v>
+      </c>
+      <c r="D10">
+        <v>2.1120000000000001</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1740,14 +1737,14 @@
       <c r="A11" s="5">
         <v>2011</v>
       </c>
-      <c r="B11" s="6">
-        <v>2.5832322686910629</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.3837906420230865</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2.7231326252222061</v>
+      <c r="B11">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="C11">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="D11">
+        <v>2.7229999999999999</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1755,14 +1752,14 @@
       <c r="A12" s="5">
         <v>2012</v>
       </c>
-      <c r="B12" s="6">
-        <v>2.4222721625119448</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.5018535368144512</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2.2813597470521927</v>
+      <c r="B12">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="C12">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="D12">
+        <v>2.2810000000000001</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1770,14 +1767,14 @@
       <c r="A13" s="5">
         <v>2013</v>
       </c>
-      <c r="B13" s="6">
-        <v>2.7276157848536968</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.78634899482131</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2.6628078036010265</v>
+      <c r="B13">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="C13">
+        <v>2.786</v>
+      </c>
+      <c r="D13">
+        <v>2.6629999999999998</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1785,14 +1782,14 @@
       <c r="A14" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="6">
-        <v>2.3403024859726429</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.3779333345592022</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2.2849654480814934</v>
+      <c r="B14">
+        <v>2.34</v>
+      </c>
+      <c r="C14">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="D14">
+        <v>2.2850000000000001</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1805,16 +1802,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
   </sheetData>
